--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf17-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf17-Fgfr1.xlsx
@@ -540,10 +540,10 @@
         <v>0.177754</v>
       </c>
       <c r="I2">
-        <v>0.129311749608618</v>
+        <v>0.6594814792829158</v>
       </c>
       <c r="J2">
-        <v>0.129311749608618</v>
+        <v>0.6594814792829158</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.675378666666666</v>
+        <v>1.845768666666667</v>
       </c>
       <c r="N2">
-        <v>14.026136</v>
+        <v>5.537306</v>
       </c>
       <c r="O2">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="P2">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="Q2">
-        <v>0.2770224198382222</v>
+        <v>0.1093642545248889</v>
       </c>
       <c r="R2">
-        <v>2.493201778544</v>
+        <v>0.984278290724</v>
       </c>
       <c r="S2">
-        <v>0.004761212681720937</v>
+        <v>0.009622423839785038</v>
       </c>
       <c r="T2">
-        <v>0.004761212681720937</v>
+        <v>0.009622423839785038</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.177754</v>
       </c>
       <c r="I3">
-        <v>0.129311749608618</v>
+        <v>0.6594814792829158</v>
       </c>
       <c r="J3">
-        <v>0.129311749608618</v>
+        <v>0.6594814792829158</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>248.871689</v>
       </c>
       <c r="O3">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="P3">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="Q3">
         <v>4.915326467389555</v>
@@ -632,10 +632,10 @@
         <v>44.237938206506</v>
       </c>
       <c r="S3">
-        <v>0.08448021905591882</v>
+        <v>0.4324754444275191</v>
       </c>
       <c r="T3">
-        <v>0.08448021905591882</v>
+        <v>0.4324754444275191</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.177754</v>
       </c>
       <c r="I4">
-        <v>0.129311749608618</v>
+        <v>0.6594814792829158</v>
       </c>
       <c r="J4">
-        <v>0.129311749608618</v>
+        <v>0.6594814792829158</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.34793966666667</v>
+        <v>41.69841866666667</v>
       </c>
       <c r="N4">
-        <v>118.043819</v>
+        <v>125.095256</v>
       </c>
       <c r="O4">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="P4">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="Q4">
-        <v>2.331417889169555</v>
+        <v>2.470686903891556</v>
       </c>
       <c r="R4">
-        <v>20.982761002526</v>
+        <v>22.236182135024</v>
       </c>
       <c r="S4">
-        <v>0.04007031787097821</v>
+        <v>0.2173836110156117</v>
       </c>
       <c r="T4">
-        <v>0.04007031787097821</v>
+        <v>0.2173836110156117</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.398954</v>
+        <v>0.030594</v>
       </c>
       <c r="H5">
-        <v>1.196862</v>
+        <v>0.091782</v>
       </c>
       <c r="I5">
-        <v>0.8706882503913821</v>
+        <v>0.3405185207170842</v>
       </c>
       <c r="J5">
-        <v>0.8706882503913821</v>
+        <v>0.3405185207170842</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.675378666666666</v>
+        <v>1.845768666666667</v>
       </c>
       <c r="N5">
-        <v>14.026136</v>
+        <v>5.537306</v>
       </c>
       <c r="O5">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="P5">
-        <v>0.03681964474327726</v>
+        <v>0.01459089321241885</v>
       </c>
       <c r="Q5">
-        <v>1.865261020581333</v>
+        <v>0.056469446588</v>
       </c>
       <c r="R5">
-        <v>16.787349185232</v>
+        <v>0.508225019292</v>
       </c>
       <c r="S5">
-        <v>0.03205843206155633</v>
+        <v>0.004968469372633811</v>
       </c>
       <c r="T5">
-        <v>0.03205843206155633</v>
+        <v>0.004968469372633811</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.398954</v>
+        <v>0.030594</v>
       </c>
       <c r="H6">
-        <v>1.196862</v>
+        <v>0.091782</v>
       </c>
       <c r="I6">
-        <v>0.8706882503913821</v>
+        <v>0.3405185207170842</v>
       </c>
       <c r="J6">
-        <v>0.8706882503913821</v>
+        <v>0.3405185207170842</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>248.871689</v>
       </c>
       <c r="O6">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="P6">
-        <v>0.653306596744776</v>
+        <v>0.6557810310272387</v>
       </c>
       <c r="Q6">
-        <v>33.09611860443533</v>
+        <v>2.537993484422</v>
       </c>
       <c r="R6">
-        <v>297.8650674399181</v>
+        <v>22.841941359798</v>
       </c>
       <c r="S6">
-        <v>0.5688263776888572</v>
+        <v>0.2233055865997196</v>
       </c>
       <c r="T6">
-        <v>0.5688263776888572</v>
+        <v>0.2233055865997196</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.398954</v>
+        <v>0.030594</v>
       </c>
       <c r="H7">
-        <v>1.196862</v>
+        <v>0.091782</v>
       </c>
       <c r="I7">
-        <v>0.8706882503913821</v>
+        <v>0.3405185207170842</v>
       </c>
       <c r="J7">
-        <v>0.8706882503913821</v>
+        <v>0.3405185207170842</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.34793966666667</v>
+        <v>41.69841866666667</v>
       </c>
       <c r="N7">
-        <v>118.043819</v>
+        <v>125.095256</v>
       </c>
       <c r="O7">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="P7">
-        <v>0.3098737585119468</v>
+        <v>0.3296280757603424</v>
       </c>
       <c r="Q7">
-        <v>15.69801792177534</v>
+        <v>1.275721420688</v>
       </c>
       <c r="R7">
-        <v>141.282161295978</v>
+        <v>11.481492786192</v>
       </c>
       <c r="S7">
-        <v>0.2698034406409686</v>
+        <v>0.1122444647447308</v>
       </c>
       <c r="T7">
-        <v>0.2698034406409686</v>
+        <v>0.1122444647447308</v>
       </c>
     </row>
   </sheetData>
